--- a/biology/Zoologie/Fournier_variable/Fournier_variable.xlsx
+++ b/biology/Zoologie/Fournier_variable/Fournier_variable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Furnarius leucopus
 Le Fournier variable (Furnarius leucopus) est une espèce de passereaux de la famille des Furnariidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure de 16,5 à 19 cm de longueur.
 </t>
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire s'étend flexueusement à travers la moitié nord de l'Amérique du Sud.
 </t>
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils habitent des lieux où prédominent l'herbe ou les arbustes; dans les zones semi-arides ils sont plus fréquents le long des cours d'eau. Leurs habitudes sont terrestres et ils se nourrissent d'insectes et de larves ou de vers. On en trouve jusqu'à une altitude de 800 mètres. Ils vivent en solitaire ou en couples. Ces couples ne se séparent jamais.
 Comme tous les oiseaux du genre Furnarius, ils construisent un nid de boue en forme de four. La nichée consiste en deux œufs.
@@ -606,7 +624,9 @@
           <t>Appellations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En espagnol, il est souvent appelé simplement Albañil. En portugais, on le dénomme Casaca de couro amarelo. En anglais il est connu comme étant le Pale legged Hornero.
 </t>
